--- a/DummyLoadDimensioning.xlsx
+++ b/DummyLoadDimensioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\RF_Dummy_Load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F6C38FC-1AE0-456C-946A-C8870FA66FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F3EB5F-14B1-481A-BB4F-16F8734741D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80F3F79B-D999-469F-9D5B-724B81BE0E21}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
   <si>
     <t>sec</t>
@@ -57,69 +54,10 @@
     <t>MHz</t>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[C]</t>
-    </r>
-  </si>
-  <si>
     <t>dt[C]</t>
   </si>
   <si>
     <t>dt[C] = tpwr[C]-tabm[C]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pwr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[C]</t>
-    </r>
   </si>
   <si>
     <t>P</t>
@@ -128,16 +66,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>t[sec]</t>
-  </si>
-  <si>
     <t>mode</t>
-  </si>
-  <si>
-    <t>CW-L</t>
-  </si>
-  <si>
-    <t>dt/W [C/W]</t>
   </si>
   <si>
     <t>dtmax = tmax - tamb</t>
@@ -149,9 +78,6 @@
     <t>tmax</t>
   </si>
   <si>
-    <t>avg[C]</t>
-  </si>
-  <si>
     <t>Pmax</t>
   </si>
   <si>
@@ -159,15 +85,6 @@
   </si>
   <si>
     <t>Pmax =(dtmax+0,7646)/0,3384</t>
-  </si>
-  <si>
-    <t>dt/t [C/sec]</t>
-  </si>
-  <si>
-    <t>avg [C/W]</t>
-  </si>
-  <si>
-    <t>avg[C/sec]</t>
   </si>
   <si>
     <t>dt[C]=2,16t[sec]+2,55</t>
@@ -178,16 +95,228 @@
   <si>
     <t>t[min]</t>
   </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pwr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[sec]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dt/t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [C/sec]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[min]</t>
+    </r>
+  </si>
+  <si>
+    <t>Dummy Load Derating Curve (tamb=26.6C</t>
+  </si>
+  <si>
+    <t>Dummy Load Temperature Inrease as a Function of Dah Time (tamb=26.6C, P = 100W)</t>
+  </si>
+  <si>
+    <t>Dummy Load Temperature Increase as Function of RF Input Power (15sec dah test, tamb=26.6C)</t>
+  </si>
+  <si>
+    <r>
+      <t>dt/t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[C/sec]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>avg(dt/t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)[C/sec] =</t>
+    </r>
+  </si>
+  <si>
+    <t>dt/P [C/W]</t>
+  </si>
+  <si>
+    <t>avg(dt/P) [C/W] =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg(tamb)[C] = </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,18 +334,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -240,15 +397,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -262,11 +416,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,7 +490,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> Function of RF Input Power (15sec test, tamb=26.6C)</a:t>
+              <a:t> Function of RF Input Power (15sec dah test, tamb=26.6C)</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
@@ -369,7 +536,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$8</c:f>
+              <c:f>Sheet1!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -446,7 +613,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$14</c:f>
+              <c:f>Sheet1!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -473,7 +640,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$14</c:f>
+              <c:f>Sheet1!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -873,7 +1040,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Dummy Load Temperature Inrease as a Function of Time </a:t>
+              <a:t>Dummy Load Temperature Inrease as a Function of Dah</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Time </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
@@ -923,7 +1098,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$8</c:f>
+              <c:f>Sheet1!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1000,7 +1175,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$C$37</c:f>
+              <c:f>Sheet1!$C$36:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1021,7 +1196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$34:$F$37</c:f>
+              <c:f>Sheet1!$F$36:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1100,7 +1275,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>t[sec]</a:t>
+                  <a:t>tdah[sec]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1465,7 +1640,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$8</c:f>
+              <c:f>Sheet1!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1512,7 +1687,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$61:$C$66</c:f>
+              <c:f>Sheet1!$C$63:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1539,7 +1714,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$61:$D$66</c:f>
+              <c:f>Sheet1!$D$63:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1624,7 +1799,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>t[min]</a:t>
+                  <a:t>tdah[min]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3572,15 +3747,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3610,15 +3785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3649,13 +3824,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4003,648 +4178,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C514A9AD-8F56-47E4-82F1-30B6EC0C4A1D}">
-  <dimension ref="C4:X66"/>
+  <dimension ref="B4:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>3.52014</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E9-D9</f>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="G9" s="5">
-        <f>F9/C9</f>
-        <v>0.33999999999999986</v>
-      </c>
-      <c r="H9" s="5">
-        <f>F9/$D$6</f>
-        <v>0.11333333333333329</v>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <f>2*C9</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E10" s="1">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F14" si="0">E10-D10</f>
-        <v>3.2000000000000028</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10:G14" si="1">F10/C10</f>
-        <v>0.32000000000000028</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" ref="H10:H14" si="2">F10/$D$6</f>
-        <v>0.21333333333333351</v>
+        <f>E10-D10</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G10" s="4">
+        <f>F10/C10</f>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="H10" s="4">
+        <f>F10/$D$6</f>
+        <v>0.11333333333333329</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
+        <f>2*C10</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F15" si="0">E11-D11</f>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" ref="G11:G15" si="1">F11/C11</f>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:H15" si="2">F11/$D$6</f>
+        <v>0.21333333333333351</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>26.6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>33.9</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>7.2999999999999972</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>0.29199999999999987</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="2"/>
         <v>0.48666666666666647</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>50</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>26.6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>42</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>15.399999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>0.308</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>1.0266666666666666</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>75</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>26.7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>49</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>22.3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>0.29733333333333334</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>1.4866666666666668</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <f>2*C12</f>
+    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>2*C13</f>
         <v>100</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>26.7</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>61.9</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0.35200000000000004</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>2.3466666666666667</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="10">
-        <f>AVERAGE(D9:D14)</f>
+    <row r="16" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8">
+        <f>AVERAGE(D10:D15)</f>
         <v>26.549999999999997</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="5">
-        <f>AVERAGE(G9:G14)</f>
+      <c r="F16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4">
+        <f>AVERAGE(G10:G15)</f>
         <v>0.31822222222222224</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="13">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="9">
-        <f>D22-D15</f>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="15">
+        <f>D23-D16</f>
         <v>73.45</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="13">
         <f>(73.5+0.7646)/0.3384</f>
         <v>219.45803782505911</v>
       </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
+      <c r="E28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.52014</v>
+      </c>
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
-        <v>3.52014</v>
-      </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="E34" s="1">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="F34" s="1">
-        <f>E34-D34</f>
-        <v>12.699999999999996</v>
-      </c>
-      <c r="G34" s="8">
-        <f>F34/C34</f>
-        <v>2.5399999999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="E35" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="F35" s="1">
-        <f>E35-D35</f>
-        <v>23.9</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="3">F35/C35</f>
-        <v>2.3899999999999997</v>
+      <c r="G35" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F36" s="1">
+        <f>E36-D36</f>
+        <v>12.699999999999996</v>
+      </c>
+      <c r="G36" s="7">
+        <f>F36/C36</f>
+        <v>2.5399999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="F37" s="1">
+        <f>E37-D37</f>
+        <v>23.9</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37:G39" si="3">F37/C37</f>
+        <v>2.3899999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
         <v>15</v>
       </c>
-      <c r="D36" s="1">
-        <f>D14</f>
+      <c r="D38" s="1">
+        <f>D15</f>
         <v>26.7</v>
       </c>
-      <c r="E36" s="1">
-        <f>E14</f>
+      <c r="E38" s="1">
+        <f>E15</f>
         <v>61.9</v>
       </c>
-      <c r="F36" s="1">
-        <f>F14</f>
+      <c r="F38" s="1">
+        <f>F15</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G38" s="7">
         <f t="shared" si="3"/>
         <v>2.3466666666666667</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1">
+    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
         <v>20</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D39" s="1">
         <v>26.7</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E39" s="1">
         <v>70.900000000000006</v>
       </c>
-      <c r="F37" s="1">
-        <f>E37-D37</f>
+      <c r="F39" s="1">
+        <f>E39-D39</f>
         <v>44.2</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G39" s="9">
         <f t="shared" si="3"/>
         <v>2.21</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="8">
-        <f>AVERAGE(G34:G37)</f>
+    <row r="40" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7">
+        <f>AVERAGE(G36:G39)</f>
         <v>2.3716666666666661</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="13">
         <v>100</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="15">
+        <f>D43-D36</f>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="9">
-        <f>D41-D34</f>
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48">
+      <c r="D50" s="13">
         <f>(73.4-2.55)/2.16</f>
         <v>32.800925925925931</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E50" s="13"/>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C53" s="1">
+      <c r="F54" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
         <v>5</v>
       </c>
-      <c r="D53" s="5">
-        <f>H9</f>
+      <c r="D55" s="4">
+        <f>H10</f>
         <v>0.11333333333333329</v>
       </c>
-      <c r="E53" s="10">
-        <f t="shared" ref="E53:E57" si="4">$D$44/D53</f>
+      <c r="E55" s="8">
+        <f t="shared" ref="E55:E59" si="4">$D$46/D55</f>
         <v>647.64705882352973</v>
       </c>
-      <c r="F53" s="10">
-        <f t="shared" ref="F53:F57" si="5">E53/60</f>
+      <c r="F55" s="8">
+        <f t="shared" ref="F55:F59" si="5">E55/60</f>
         <v>10.79411764705883</v>
       </c>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C54" s="1">
-        <f>2*C53</f>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <f>2*C55</f>
         <v>10</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" ref="D54:D58" si="6">H10</f>
+      <c r="D56" s="4">
+        <f>H11</f>
         <v>0.21333333333333351</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E56" s="8">
         <f t="shared" si="4"/>
         <v>344.06249999999972</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F56" s="8">
         <f t="shared" si="5"/>
         <v>5.7343749999999956</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C55" s="1">
+    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
         <f>25</f>
         <v>25</v>
       </c>
-      <c r="D55" s="5">
-        <f t="shared" si="6"/>
+      <c r="D57" s="4">
+        <f>H12</f>
         <v>0.48666666666666647</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E57" s="8">
         <f t="shared" si="4"/>
         <v>150.82191780821924</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F57" s="8">
         <f t="shared" si="5"/>
         <v>2.5136986301369872</v>
       </c>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C56" s="1">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
         <v>50</v>
       </c>
-      <c r="D56" s="5">
-        <f t="shared" si="6"/>
+      <c r="D58" s="4">
+        <f>H13</f>
         <v>1.0266666666666666</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="8">
         <f t="shared" si="4"/>
         <v>71.493506493506501</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F58" s="8">
         <f t="shared" si="5"/>
         <v>1.1915584415584417</v>
       </c>
     </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C57" s="1">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
         <v>75</v>
       </c>
-      <c r="D57" s="5">
-        <f t="shared" si="6"/>
+      <c r="D59" s="4">
+        <f>H14</f>
         <v>1.4866666666666668</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E59" s="8">
         <f t="shared" si="4"/>
         <v>49.372197309417039</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F59" s="8">
         <f t="shared" si="5"/>
         <v>0.82286995515695061</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C58" s="1">
-        <f>2*C56</f>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <f>2*C58</f>
         <v>100</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D60" s="4">
+        <f>H15</f>
+        <v>2.3466666666666667</v>
+      </c>
+      <c r="E60" s="8">
+        <f>$D$46/D60</f>
+        <v>31.278409090909093</v>
+      </c>
+      <c r="F60" s="8">
+        <f>E60/60</f>
+        <v>0.52130681818181823</v>
+      </c>
+      <c r="X60">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="X61">
+        <f>100*X60</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X62">
+        <f>X61^2/50/2</f>
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C63" s="12">
+        <f>F55</f>
+        <v>10.79411764705883</v>
+      </c>
+      <c r="D63" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C64" s="12">
+        <f t="shared" ref="C64:C68" si="6">F56</f>
+        <v>5.7343749999999956</v>
+      </c>
+      <c r="D64" s="11">
+        <f>2*D63</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="12">
         <f t="shared" si="6"/>
-        <v>2.3466666666666667</v>
-      </c>
-      <c r="E58" s="10">
-        <f>$D$44/D58</f>
-        <v>31.278409090909093</v>
-      </c>
-      <c r="F58" s="10">
-        <f>E58/60</f>
-        <v>0.52130681818181823</v>
-      </c>
-      <c r="X58">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="X59">
-        <f>100*X58</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X60">
-        <f>X59^2/50/2</f>
-        <v>21.16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C61" s="10">
-        <f>F53</f>
-        <v>10.79411764705883</v>
-      </c>
-      <c r="D61" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C62" s="10">
-        <f t="shared" ref="C62:C66" si="7">F54</f>
-        <v>5.7343749999999956</v>
-      </c>
-      <c r="D62" s="1">
-        <f>2*D61</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C63" s="10">
-        <f t="shared" si="7"/>
         <v>2.5136986301369872</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D65" s="11">
         <f>25</f>
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C64" s="10">
-        <f t="shared" si="7"/>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="12">
+        <f t="shared" si="6"/>
         <v>1.1915584415584417</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D66" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="10">
-        <f t="shared" si="7"/>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="12">
+        <f t="shared" si="6"/>
         <v>0.82286995515695061</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D67" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="10">
-        <f t="shared" si="7"/>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="12">
+        <f t="shared" si="6"/>
         <v>0.52130681818181823</v>
       </c>
-      <c r="D66" s="1">
-        <f>2*D64</f>
+      <c r="D68" s="11">
+        <f>2*D66</f>
         <v>100</v>
       </c>
     </row>

--- a/DummyLoadDimensioning.xlsx
+++ b/DummyLoadDimensioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\RF_Dummy_Load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F3EB5F-14B1-481A-BB4F-16F8734741D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4504937B-83D3-4A77-A6D2-E92BEA36E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80F3F79B-D999-469F-9D5B-724B81BE0E21}"/>
   </bookViews>
@@ -316,7 +316,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +361,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +441,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4180,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C514A9AD-8F56-47E4-82F1-30B6EC0C4A1D}">
   <dimension ref="B4:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,100 +4417,165 @@
         <v>0.31822222222222224</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="16">
         <v>100</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="18">
         <f>D23-D16</f>
         <v>73.45</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="16">
         <f>(73.5+0.7646)/0.3384</f>
         <v>219.45803782505911</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -4509,7 +4586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -4520,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>9</v>
       </c>
@@ -4724,15 +4801,15 @@
         <v>5</v>
       </c>
       <c r="D55" s="4">
-        <f>H10</f>
+        <f t="shared" ref="D55:D60" si="4">H10</f>
         <v>0.11333333333333329</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E59" si="4">$D$46/D55</f>
+        <f t="shared" ref="E55:E59" si="5">$D$46/D55</f>
         <v>647.64705882352973</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" ref="F55:F59" si="5">E55/60</f>
+        <f t="shared" ref="F55:F59" si="6">E55/60</f>
         <v>10.79411764705883</v>
       </c>
     </row>
@@ -4742,15 +4819,15 @@
         <v>10</v>
       </c>
       <c r="D56" s="4">
-        <f>H11</f>
+        <f t="shared" si="4"/>
         <v>0.21333333333333351</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>344.06249999999972</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.7343749999999956</v>
       </c>
     </row>
@@ -4760,15 +4837,15 @@
         <v>25</v>
       </c>
       <c r="D57" s="4">
-        <f>H12</f>
+        <f t="shared" si="4"/>
         <v>0.48666666666666647</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150.82191780821924</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5136986301369872</v>
       </c>
     </row>
@@ -4777,15 +4854,15 @@
         <v>50</v>
       </c>
       <c r="D58" s="4">
-        <f>H13</f>
+        <f t="shared" si="4"/>
         <v>1.0266666666666666</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.493506493506501</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1915584415584417</v>
       </c>
     </row>
@@ -4794,15 +4871,15 @@
         <v>75</v>
       </c>
       <c r="D59" s="4">
-        <f>H14</f>
+        <f t="shared" si="4"/>
         <v>1.4866666666666668</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.372197309417039</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82286995515695061</v>
       </c>
     </row>
@@ -4812,7 +4889,7 @@
         <v>100</v>
       </c>
       <c r="D60" s="4">
-        <f>H15</f>
+        <f t="shared" si="4"/>
         <v>2.3466666666666667</v>
       </c>
       <c r="E60" s="8">
@@ -4858,7 +4935,7 @@
     </row>
     <row r="64" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C64" s="12">
-        <f t="shared" ref="C64:C68" si="6">F56</f>
+        <f t="shared" ref="C64:C68" si="7">F56</f>
         <v>5.7343749999999956</v>
       </c>
       <c r="D64" s="11">
@@ -4868,7 +4945,7 @@
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5136986301369872</v>
       </c>
       <c r="D65" s="11">
@@ -4878,7 +4955,7 @@
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1915584415584417</v>
       </c>
       <c r="D66" s="11">
@@ -4887,7 +4964,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82286995515695061</v>
       </c>
       <c r="D67" s="11">
@@ -4896,7 +4973,7 @@
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52130681818181823</v>
       </c>
       <c r="D68" s="11">

--- a/DummyLoadDimensioning.xlsx
+++ b/DummyLoadDimensioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\RF_Dummy_Load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4504937B-83D3-4A77-A6D2-E92BEA36E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87990B-4D67-4EA0-9E5E-F3BAAC1E5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80F3F79B-D999-469F-9D5B-724B81BE0E21}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,11 +436,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4192,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C514A9AD-8F56-47E4-82F1-30B6EC0C4A1D}">
   <dimension ref="B4:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,162 +4413,162 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>100</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <f>D23-D16</f>
         <v>73.45</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
         <f>(73.5+0.7646)/0.3384</f>
         <v>219.45803782505911</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
@@ -4605,15 +4600,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
         <v>23</v>
       </c>
@@ -4630,7 +4625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>5</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>2.5399999999999991</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>10</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>2.3899999999999997</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>15</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>2.3466666666666667</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>20</v>
       </c>
@@ -4708,7 +4703,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E40" s="3" t="s">
         <v>30</v>
       </c>
@@ -4717,7 +4712,25 @@
         <v>2.3716666666666661</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="14" t="s">
         <v>12</v>
       </c>
@@ -4727,20 +4740,32 @@
       <c r="E43" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="13" t="s">
         <v>11</v>
       </c>
@@ -4749,23 +4774,39 @@
         <v>73.400000000000006</v>
       </c>
       <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
@@ -4776,6 +4817,28 @@
         <v>32.800925925925931</v>
       </c>
       <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C53" t="s">

--- a/DummyLoadDimensioning.xlsx
+++ b/DummyLoadDimensioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\RF_Dummy_Load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87990B-4D67-4EA0-9E5E-F3BAAC1E5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C379948-1202-4277-91F5-091277F0FF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80F3F79B-D999-469F-9D5B-724B81BE0E21}"/>
   </bookViews>
@@ -316,7 +316,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,14 +330,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,20 +419,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4185,10 +4177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C514A9AD-8F56-47E4-82F1-30B6EC0C4A1D}">
-  <dimension ref="B4:X68"/>
+  <dimension ref="B4:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,162 +4405,162 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>100</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <f>D23-D16</f>
         <v>73.45</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <f>(73.5+0.7646)/0.3384</f>
         <v>219.45803782505911</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
@@ -4713,139 +4705,142 @@
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="11">
         <v>100</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="13">
         <f>D43-D36</f>
         <v>73.400000000000006</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11">
+        <f>D46/G40</f>
+        <v>30.94869992972594</v>
+      </c>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="13" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="11">
         <f>(73.4-2.55)/2.16</f>
         <v>32.800925925925931</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C54" s="10" t="s">
         <v>2</v>
       </c>
@@ -4859,7 +4854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>5</v>
       </c>
@@ -4876,7 +4871,7 @@
         <v>10.79411764705883</v>
       </c>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <f>2*C55</f>
         <v>10</v>
@@ -4894,7 +4889,7 @@
         <v>5.7343749999999956</v>
       </c>
     </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <f>25</f>
         <v>25</v>
@@ -4912,7 +4907,7 @@
         <v>2.5136986301369872</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>50</v>
       </c>
@@ -4929,7 +4924,7 @@
         <v>1.1915584415584417</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>75</v>
       </c>
@@ -4946,7 +4941,7 @@
         <v>0.82286995515695061</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <f>2*C58</f>
         <v>100</v>
@@ -4967,82 +4962,148 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
       <c r="X61">
         <f>100*X60</f>
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C62" s="11" t="s">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
       <c r="X62">
         <f>X61^2/50/2</f>
         <v>21.16</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C63" s="12">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="15">
         <f>F55</f>
         <v>10.79411764705883</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C64" s="12">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="15">
         <f t="shared" ref="C64:C68" si="7">F56</f>
         <v>5.7343749999999956</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="14">
         <f>2*D63</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="12">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="15">
         <f t="shared" si="7"/>
         <v>2.5136986301369872</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="14">
         <f>25</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="12">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="15">
         <f t="shared" si="7"/>
         <v>1.1915584415584417</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="12">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+      <c r="C67" s="15">
         <f t="shared" si="7"/>
         <v>0.82286995515695061</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="12">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="15">
         <f t="shared" si="7"/>
         <v>0.52130681818181823</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="14">
         <f>2*D66</f>
         <v>100</v>
       </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
